--- a/create_forecast_basic/future/iplan/Intermediates/240501_pop_2050_iplan.xlsx
+++ b/create_forecast_basic/future/iplan/Intermediates/240501_pop_2050_iplan.xlsx
@@ -8838,7 +8838,7 @@
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="n">
-        <v>30679.17595988839</v>
+        <v>31140.09036586283</v>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr"/>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
-        <v>13003.90230142143</v>
+        <v>12333.69724124674</v>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="n">
-        <v>13930.70974511126</v>
+        <v>14140.00039931153</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
